--- a/dist/rd3_portal_novelomics.xlsx
+++ b/dist/rd3_portal_novelomics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="83">
   <si>
     <t>rd3_portal</t>
   </si>
@@ -30,10 +30,10 @@
     <t>Novel Omics</t>
   </si>
   <si>
-    <t>RD3 portal, containing data submitted by CNAG</t>
-  </si>
-  <si>
-    <t>Staging tables for novel omics sample and experiment metadata (v1.3.0, 2021-10-11)</t>
+    <t>RD3 portal, containing data submitted by CNAG (v1.1.0, 2021-10-11)</t>
+  </si>
+  <si>
+    <t>Staging tables for novel omics sample and experiment metadata (v1.4.0, 2022-02-03)</t>
   </si>
   <si>
     <t>experiment</t>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>CNAG_barcode</t>
+  </si>
+  <si>
+    <t>alternative_sample_identifier</t>
   </si>
   <si>
     <t>string</t>
@@ -616,16 +619,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -668,16 +671,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -715,7 +718,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -723,28 +726,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -758,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -778,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -818,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -838,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -858,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -878,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -898,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -918,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -938,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -958,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -998,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1018,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1038,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1078,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1098,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1118,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1138,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1158,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1178,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1198,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1218,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1238,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1258,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1278,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1298,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1318,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1338,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1358,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1378,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1398,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1418,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1438,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1458,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1478,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -1498,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -1518,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -1538,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -1558,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -1578,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -1598,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -1618,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -1627,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1641,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -1664,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -1684,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -1704,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -1724,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -1744,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -1764,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -1784,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -1804,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -1824,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -1844,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -1864,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -1878,10 +1881,10 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="s">
         <v>68</v>
@@ -1891,9 +1894,6 @@
       </c>
       <c r="F58" t="b">
         <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1901,10 +1901,10 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
         <v>69</v>
@@ -1915,8 +1915,8 @@
       <c r="F59" t="b">
         <v>1</v>
       </c>
-      <c r="H59" t="b">
-        <v>0</v>
+      <c r="G59" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1924,18 +1924,41 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
         <v>59</v>
       </c>
-      <c r="C60" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" t="b">
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="b">
         <v>0</v>
       </c>
     </row>
